--- a/assets/disciplinas/LOM3092.xlsx
+++ b/assets/disciplinas/LOM3092.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="39">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,16 +70,19 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>A ciência dos biomateriais é uma atividade multidisciplinar que envolve a medicina, as ciências naturais e as engenharias, delimitando duas grandes áreas: a biotecnologia e a bioengenharia. A disciplina Biomateriais visa prover aos estudantes fundamentos básicos da ciência de biomateriais, dar uma perspectiva sobre os principais biomateriais aplicados em algumas áreas da medicina e contribuir para a compreensão das interações célula-material. Dessa forma, contribuir para o desenvolvimento da área e certamente alavancar a formação de recursos humanos associados a um melhor uso da infra-estrutura já existente.</t>
+    <t>2166002 - Sandra Giacomin Schneider</t>
   </si>
   <si>
     <t>Objectives:</t>
   </si>
   <si>
+    <t>Docentes responsáveis:</t>
+  </si>
+  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>2166002 - Sandra Giacomin Schneider</t>
+    <t>Semestral</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -88,13 +91,6 @@
     <t>Programa:</t>
   </si>
   <si>
-    <t>1 - Introdução aos Biomateriais
-2 - Interação tecido - implante
-3 - Técnicas de modificação de superfície
-4 - Técnicas de caracterização biológica
-5 - Aspectos práticos no uso de biomateriais</t>
-  </si>
-  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -102,27 +98,6 @@
   </si>
   <si>
     <t>Método:</t>
-  </si>
-  <si>
-    <t>1 - Introdução aos Biomateriais
-  1.1- Conceitos básicos de biomateriais; 
-  1.2 - Classes de materiais usados na área biomédica;
-  1.3 - Classificação dos biomateriais quanto à resposta biológica
-2 - Interação tecido  implante:
-  2.1 - Histórico da osteointegração; 
-  2.2 - Fisiologia do osso;
-  2.3 - Natureza da ligação osso-implante;
-  2.4 - Aspectos superficiais dos implantes.
-3 - Técnicas de modificação da superfície:
-  3.1 - Técnicas para criar uma superfície bioativa: cerâmicas bioativas e biovidros, recobrimentos com fosfatos de  cálcio como transportador de proteínas ósseas morfogenéticas;
-  3.2 - Técnicas para aumentar a rugosidade superficial: usinagem, ataque ácido, jateamento, aspersão térmica. 
-4 - Técnicas de caracterização biológica
-  4.1 - Teste em líquido corporal simulado (SBF)
-  4.2 - Cultura de células (in vitro)
-  4.3  Teste com cobaias (in vivo)
-5 - Aspectos práticos no uso de biomateriais
-  5.1- Técnicas de esterilização
-  5.2  Normas técnicas</t>
   </si>
   <si>
     <t>Critério:</t>
@@ -517,7 +492,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -637,122 +612,127 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="60" customHeight="1">
+    <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>21</v>
-      </c>
     </row>
     <row r="13" spans="1:3" ht="60" customHeight="1">
       <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" ht="120" customHeight="1">
+      <c r="C13" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>24</v>
-      </c>
     </row>
     <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="120" customHeight="1">
+      <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="1" t="s">
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="60" customHeight="1">
-      <c r="A17" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="60" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="60" customHeight="1">
+      <c r="A20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="C20" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="120" customHeight="1">
+      <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="120" customHeight="1">
-      <c r="A20" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C21" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="30" customHeight="1">
-      <c r="B22" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="30" customHeight="1">
       <c r="B23" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="30" customHeight="1">
       <c r="B24" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="30" customHeight="1">
       <c r="B25" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="30" customHeight="1">
+      <c r="B26" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/assets/disciplinas/LOM3092.xlsx
+++ b/assets/disciplinas/LOM3092.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="40">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,27 +70,31 @@
     <t>Objetivos:</t>
   </si>
   <si>
+    <t>A ciência dos biomateriais é uma atividade multidisciplinar que envolve a medicina, as ciências naturais e as engenharias, delimitando duas grandes áreas: a biotecnologia e a bioengenharia. A disciplina Biomateriais visa prover aos estudantes fundamentos básicos da ciência de biomateriais, dar uma perspectiva sobre os principais biomateriais aplicados em algumas áreas da medicina e contribuir para a compreensão das interações célula-material. Dessa forma, contribuir para o desenvolvimento da área e certamente alavancar a formação de recursos humanos associados a um melhor uso da infra-estrutura já existente.</t>
+  </si>
+  <si>
+    <t>Objectives:</t>
+  </si>
+  <si>
+    <t>Programa resumido:</t>
+  </si>
+  <si>
     <t>2166002 - Sandra Giacomin Schneider</t>
   </si>
   <si>
-    <t>Objectives:</t>
-  </si>
-  <si>
-    <t>Docentes responsáveis:</t>
-  </si>
-  <si>
-    <t>Programa resumido:</t>
-  </si>
-  <si>
-    <t>Semestral</t>
-  </si>
-  <si>
     <t>Short syllabus:</t>
   </si>
   <si>
     <t>Programa:</t>
   </si>
   <si>
+    <t>1 - Introdução aos Biomateriais
+2 - Interação tecido - implante
+3 - Técnicas de modificação de superfície
+4 - Técnicas de caracterização biológica
+5 - Aspectos práticos no uso de biomateriais</t>
+  </si>
+  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -98,6 +102,27 @@
   </si>
   <si>
     <t>Método:</t>
+  </si>
+  <si>
+    <t>1 - Introdução aos Biomateriais
+  1.1- Conceitos básicos de biomateriais; 
+  1.2 - Classes de materiais usados na área biomédica;
+  1.3 - Classificação dos biomateriais quanto à resposta biológica
+2 - Interação tecido  implante:
+  2.1 - Histórico da osteointegração; 
+  2.2 - Fisiologia do osso;
+  2.3 - Natureza da ligação osso-implante;
+  2.4 - Aspectos superficiais dos implantes.
+3 - Técnicas de modificação da superfície:
+  3.1 - Técnicas para criar uma superfície bioativa: cerâmicas bioativas e biovidros, recobrimentos com fosfatos de  cálcio como transportador de proteínas ósseas morfogenéticas;
+  3.2 - Técnicas para aumentar a rugosidade superficial: usinagem, ataque ácido, jateamento, aspersão térmica. 
+4 - Técnicas de caracterização biológica
+  4.1 - Teste em líquido corporal simulado (SBF)
+  4.2 - Cultura de células (in vitro)
+  4.3  Teste com cobaias (in vivo)
+5 - Aspectos práticos no uso de biomateriais
+  5.1- Técnicas de esterilização
+  5.2  Normas técnicas</t>
   </si>
   <si>
     <t>Critério:</t>
@@ -492,13 +517,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="30.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="60.7109375" style="3" customWidth="1"/>
   </cols>
@@ -612,127 +637,122 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" ht="60" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="B12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="13" spans="1:3" ht="60" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="60" customHeight="1">
+    </row>
+    <row r="14" spans="1:3" ht="120" customHeight="1">
       <c r="A14" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="B14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="120" customHeight="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="60" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="60" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="60" customHeight="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="120" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="120" customHeight="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="30" customHeight="1">
+      <c r="B22" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="30" customHeight="1">
       <c r="B23" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="30" customHeight="1">
       <c r="B24" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="30" customHeight="1">
       <c r="B25" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="30" customHeight="1">
-      <c r="B26" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
